--- a/Output/VO2maxQC/Data.VO2MAXQC.xlsx
+++ b/Output/VO2maxQC/Data.VO2MAXQC.xlsx
@@ -15,8 +15,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd HH:mm:ss UTC"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -55,12 +56,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -355,13 +357,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE154"/>
+  <dimension ref="A1:CX160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="27" max="27" width="20.7109375" style="2" customWidth="1"/>
+    <col min="40" max="40" width="20.7109375" style="3" customWidth="1"/>
+    <col min="41" max="41" width="20.7109375" style="3" customWidth="1"/>
+    <col min="46" max="46" width="20.7109375" style="3" customWidth="1"/>
+    <col min="56" max="56" width="20.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1">
@@ -520,6 +526,361 @@
           <t>operator</t>
         </is>
       </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>participant_id</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>project_name</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>site_name</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>baseline_no</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>allocation_no</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>sex</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>task_name</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>task_status</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>task_start</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>task_end</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>schema_name</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>schema_version</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>appointment_id</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>schema_version_id</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>dato_vo_2_max</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>initialer</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>opvarmningsbelastning</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>watt_øgning</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>er_vo_2_max_nået</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>borg_skala_efter_test</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>vo_2_max</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>kondital</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>hrmax</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>watt_max</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>tid_vo_2</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>sædeindstilling</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>styr_indstilling</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>subj_max</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>årsag_til_stop</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>aarsag_stop</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>mITT</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>attendance</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>attendance_sufficient</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>unsuccesful_exercise</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>successful_exercise</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>unknown_exercise_effect</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>0	1</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>succesful_HIIT</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>succes_percentage</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>treatment</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>all_ifn</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>from_soren</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>m_1_2</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>m_3_4</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>m_5_12</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>ifn_1_el_sherb</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>ifn_2_el_sherb</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>ifn_2_siddiqi</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>il_6_related</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>tnf_related</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>ifn_alpha_siddiqi</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>ifn_beta_siddiqi</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>ifn_gamma_siddiqi</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>j_williams_aerobic</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>all_ifn_geomean</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>from_soren_geomean</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>m_1_2_geomean</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>m_3_4_geomean</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>m_5_12_geomean</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>ifn_1_el_sherb_geomean</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>ifn_2_el_sherb_geomean</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>ifn_2_siddiqi_geomean</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>il_6_related_geomean</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>tnf_related_geomean</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>ifn_alpha_siddiqi_geomean</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>ifn_beta_siddiqi_geomean</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>ifn_gamma_siddiqi_geomean</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>j_williams_aerobic_geomean</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>all_ifn_netto_t_test</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>ifn_1_netto</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>treat</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -10908,19 +11269,13 @@
         <v>28.55333333333333</v>
       </c>
       <c r="D117">
-        <v>28.7</v>
-      </c>
-      <c r="E117" t="b">
-        <v>1</v>
+        <v>28.55</v>
       </c>
       <c r="F117" t="b">
         <v>1</v>
       </c>
-      <c r="G117">
-        <v>16</v>
-      </c>
       <c r="H117">
-        <v>788</v>
+        <v>795</v>
       </c>
       <c r="I117">
         <v>2158.526419533333</v>
@@ -10955,23 +11310,11 @@
       <c r="V117" t="b">
         <v>0</v>
       </c>
-      <c r="W117">
-        <v>2</v>
-      </c>
-      <c r="X117" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y117">
-        <v>3</v>
-      </c>
-      <c r="Z117">
-        <v>16</v>
-      </c>
       <c r="AA117" s="2">
-        <v>44844</v>
+        <v>44858</v>
       </c>
       <c r="AB117">
-        <v>788</v>
+        <v>795</v>
       </c>
       <c r="AC117" t="b">
         <v>1</v>
@@ -14274,6 +14617,1455 @@
       <c r="AE154" t="inlineStr">
         <is>
           <t>Malte</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>lup_010</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>followup</t>
+        </is>
+      </c>
+      <c r="C155">
+        <v>37.87</v>
+      </c>
+      <c r="F155" t="b">
+        <v>1</v>
+      </c>
+      <c r="G155">
+        <v>19</v>
+      </c>
+      <c r="AD155">
+        <v>2</v>
+      </c>
+      <c r="AE155" t="inlineStr">
+        <is>
+          <t>Clara</t>
+        </is>
+      </c>
+      <c r="AF155">
+        <v>212185</v>
+      </c>
+      <c r="AG155" t="inlineStr">
+        <is>
+          <t>LUPEX</t>
+        </is>
+      </c>
+      <c r="AH155" t="inlineStr">
+        <is>
+          <t>Center for Aktiv Sundhed</t>
+        </is>
+      </c>
+      <c r="AI155" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AJ155" t="inlineStr">
+        <is>
+          <t>lup010</t>
+        </is>
+      </c>
+      <c r="AK155" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AL155" t="inlineStr">
+        <is>
+          <t>Visit 5 - Follow-Up</t>
+        </is>
+      </c>
+      <c r="AM155" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="AN155" s="3">
+        <v>44873.39584490741</v>
+      </c>
+      <c r="AO155" s="3">
+        <v>44873.52084490741</v>
+      </c>
+      <c r="AP155" t="inlineStr">
+        <is>
+          <t>e_visit_vo_max_protokol</t>
+        </is>
+      </c>
+      <c r="AQ155">
+        <v>10</v>
+      </c>
+      <c r="AR155">
+        <v>94262</v>
+      </c>
+      <c r="AS155">
+        <v>3400</v>
+      </c>
+      <c r="AT155" s="3">
+        <v>44873</v>
+      </c>
+      <c r="AU155" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="AV155">
+        <v>30</v>
+      </c>
+      <c r="AW155">
+        <v>15</v>
+      </c>
+      <c r="AX155" t="inlineStr">
+        <is>
+          <t>0	1</t>
+        </is>
+      </c>
+      <c r="AY155">
+        <v>13</v>
+      </c>
+      <c r="AZ155">
+        <v>2374.24</v>
+      </c>
+      <c r="BA155">
+        <v>37.87</v>
+      </c>
+      <c r="BB155">
+        <v>171</v>
+      </c>
+      <c r="BC155">
+        <v>153</v>
+      </c>
+      <c r="BD155" s="3">
+        <v>0.5506944444459805</v>
+      </c>
+      <c r="BE155">
+        <v>6</v>
+      </c>
+      <c r="BF155">
+        <v>9</v>
+      </c>
+      <c r="BG155">
+        <v>1</v>
+      </c>
+      <c r="BH155" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="BI155" t="inlineStr">
+        <is>
+          <t>Bange for der ikke kommer nok luft i lungerne. så følte ikke længere hun kunne trække vejret ordentligt</t>
+        </is>
+      </c>
+      <c r="BJ155">
+        <v>1</v>
+      </c>
+      <c r="BS155" t="inlineStr">
+        <is>
+          <t>control</t>
+        </is>
+      </c>
+      <c r="BT155">
+        <v>0.2122558937251756</v>
+      </c>
+      <c r="BU155">
+        <v>0.2586727486372531</v>
+      </c>
+      <c r="BV155">
+        <v>-0.07363561120917152</v>
+      </c>
+      <c r="BW155">
+        <v>0.6241311993843693</v>
+      </c>
+      <c r="BX155">
+        <v>0.4743879961013898</v>
+      </c>
+      <c r="BY155">
+        <v>-0.3193787296680629</v>
+      </c>
+      <c r="BZ155">
+        <v>0.4379555503591229</v>
+      </c>
+      <c r="CA155">
+        <v>-0.1262110717224811</v>
+      </c>
+      <c r="CB155">
+        <v>0.01586749300648464</v>
+      </c>
+      <c r="CC155">
+        <v>-0.09224836350577134</v>
+      </c>
+      <c r="CD155">
+        <v>-0.2684395936098996</v>
+      </c>
+      <c r="CE155">
+        <v>1.529952722450769</v>
+      </c>
+      <c r="CF155">
+        <v>-0.01910359231765564</v>
+      </c>
+      <c r="CG155">
+        <v>0.08591174748044632</v>
+      </c>
+      <c r="CH155">
+        <v>8.756336194325357</v>
+      </c>
+      <c r="CI155">
+        <v>8.570486538881237</v>
+      </c>
+      <c r="CJ155">
+        <v>7.948125229051301</v>
+      </c>
+      <c r="CK155">
+        <v>8.965885791272498</v>
+      </c>
+      <c r="CL155">
+        <v>9.852624182428771</v>
+      </c>
+      <c r="CM155">
+        <v>7.326387953404323</v>
+      </c>
+      <c r="CN155">
+        <v>8.597329113309206</v>
+      </c>
+      <c r="CO155">
+        <v>12.1730741144213</v>
+      </c>
+      <c r="CP155">
+        <v>7.452867616054389</v>
+      </c>
+      <c r="CQ155">
+        <v>6.614452007313755</v>
+      </c>
+      <c r="CR155">
+        <v>7.602914164654397</v>
+      </c>
+      <c r="CS155">
+        <v>6.887067549443658</v>
+      </c>
+      <c r="CT155">
+        <v>10.83431128827327</v>
+      </c>
+      <c r="CU155">
+        <v>8.106823986560437</v>
+      </c>
+      <c r="CV155">
+        <v>0.3035785353120877</v>
+      </c>
+      <c r="CW155">
+        <v>0.190174581160694</v>
+      </c>
+      <c r="CX155" t="inlineStr">
+        <is>
+          <t>control</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>lup_011</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>baseline</t>
+        </is>
+      </c>
+      <c r="C156">
+        <v>22.4</v>
+      </c>
+      <c r="F156" t="b">
+        <v>1</v>
+      </c>
+      <c r="G156">
+        <v>19</v>
+      </c>
+      <c r="AD156">
+        <v>3</v>
+      </c>
+      <c r="AE156" t="inlineStr">
+        <is>
+          <t>Clara og Iben</t>
+        </is>
+      </c>
+      <c r="AF156">
+        <v>212199</v>
+      </c>
+      <c r="AG156" t="inlineStr">
+        <is>
+          <t>LUPEX</t>
+        </is>
+      </c>
+      <c r="AH156" t="inlineStr">
+        <is>
+          <t>Center for Aktiv Sundhed</t>
+        </is>
+      </c>
+      <c r="AI156" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="AJ156" t="inlineStr">
+        <is>
+          <t>Lup011</t>
+        </is>
+      </c>
+      <c r="AK156" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AL156" t="inlineStr">
+        <is>
+          <t>Visit 2 - Baseline</t>
+        </is>
+      </c>
+      <c r="AM156" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="AN156" s="3">
+        <v>44792.49333333333</v>
+      </c>
+      <c r="AO156" s="3">
+        <v>44792.61833333333</v>
+      </c>
+      <c r="AP156" t="inlineStr">
+        <is>
+          <t>e_visit_vo_max_protokol</t>
+        </is>
+      </c>
+      <c r="AQ156">
+        <v>10</v>
+      </c>
+      <c r="AR156">
+        <v>93674</v>
+      </c>
+      <c r="AS156">
+        <v>3400</v>
+      </c>
+      <c r="AT156" s="3">
+        <v>44792</v>
+      </c>
+      <c r="AU156" t="inlineStr">
+        <is>
+          <t>IER+CE</t>
+        </is>
+      </c>
+      <c r="AV156">
+        <v>20</v>
+      </c>
+      <c r="AW156">
+        <v>15</v>
+      </c>
+      <c r="AX156" t="inlineStr">
+        <is>
+          <t>0	1	Plateu i VO2</t>
+        </is>
+      </c>
+      <c r="AY156">
+        <v>13</v>
+      </c>
+      <c r="AZ156">
+        <v>1214.8</v>
+      </c>
+      <c r="BA156">
+        <v>22.4</v>
+      </c>
+      <c r="BB156">
+        <v>188</v>
+      </c>
+      <c r="BC156">
+        <v>103</v>
+      </c>
+      <c r="BD156" s="3">
+        <v>0.4395833333328483</v>
+      </c>
+      <c r="BE156">
+        <v>2</v>
+      </c>
+      <c r="BF156">
+        <v>9</v>
+      </c>
+      <c r="BG156">
+        <v>1</v>
+      </c>
+      <c r="BH156" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BJ156">
+        <v>1</v>
+      </c>
+      <c r="BS156" t="inlineStr">
+        <is>
+          <t>control</t>
+        </is>
+      </c>
+      <c r="BT156">
+        <v>4.590790177773837</v>
+      </c>
+      <c r="BU156">
+        <v>4.805974357793652</v>
+      </c>
+      <c r="BV156">
+        <v>4.433914591217243</v>
+      </c>
+      <c r="BW156">
+        <v>4.68487873411525</v>
+      </c>
+      <c r="BX156">
+        <v>6.013394110162015</v>
+      </c>
+      <c r="BY156">
+        <v>3.834214151163938</v>
+      </c>
+      <c r="BZ156">
+        <v>4.555505605493628</v>
+      </c>
+      <c r="CA156">
+        <v>4.320287632939199</v>
+      </c>
+      <c r="CB156">
+        <v>1.647858463927084</v>
+      </c>
+      <c r="CC156">
+        <v>0.6718330950831086</v>
+      </c>
+      <c r="CD156">
+        <v>4.382318690124636</v>
+      </c>
+      <c r="CE156">
+        <v>3.436453846230091</v>
+      </c>
+      <c r="CF156">
+        <v>4.097045405933912</v>
+      </c>
+      <c r="CG156">
+        <v>0.8919545352655567</v>
+      </c>
+      <c r="CH156">
+        <v>10.75659796394016</v>
+      </c>
+      <c r="CI156">
+        <v>10.68450795026315</v>
+      </c>
+      <c r="CJ156">
+        <v>10.99080793708834</v>
+      </c>
+      <c r="CK156">
+        <v>10.4478399255192</v>
+      </c>
+      <c r="CL156">
+        <v>11.12588245784893</v>
+      </c>
+      <c r="CM156">
+        <v>10.21415159769193</v>
+      </c>
+      <c r="CN156">
+        <v>9.917215312391791</v>
+      </c>
+      <c r="CO156">
+        <v>14.18618301620936</v>
+      </c>
+      <c r="CP156">
+        <v>7.991695758352165</v>
+      </c>
+      <c r="CQ156">
+        <v>7.046963649665538</v>
+      </c>
+      <c r="CR156">
+        <v>10.31459027021232</v>
+      </c>
+      <c r="CS156">
+        <v>7.622911583474012</v>
+      </c>
+      <c r="CT156">
+        <v>12.54222053023543</v>
+      </c>
+      <c r="CU156">
+        <v>8.06429301283311</v>
+      </c>
+      <c r="CV156">
+        <v>4.896784554010557</v>
+      </c>
+      <c r="CW156">
+        <v>4.624252362676583</v>
+      </c>
+      <c r="CX156" t="inlineStr">
+        <is>
+          <t>control</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>lup_015</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>baseline</t>
+        </is>
+      </c>
+      <c r="C157">
+        <v>30.88</v>
+      </c>
+      <c r="F157" t="b">
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <v>16</v>
+      </c>
+      <c r="AD157">
+        <v>1</v>
+      </c>
+      <c r="AE157" t="inlineStr">
+        <is>
+          <t>Iben</t>
+        </is>
+      </c>
+      <c r="AF157">
+        <v>212364</v>
+      </c>
+      <c r="AG157" t="inlineStr">
+        <is>
+          <t>LUPEX</t>
+        </is>
+      </c>
+      <c r="AH157" t="inlineStr">
+        <is>
+          <t>Center for Aktiv Sundhed</t>
+        </is>
+      </c>
+      <c r="AI157" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="AJ157" t="inlineStr">
+        <is>
+          <t>Lup015</t>
+        </is>
+      </c>
+      <c r="AK157" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AL157" t="inlineStr">
+        <is>
+          <t>Visit 2 - Baseline</t>
+        </is>
+      </c>
+      <c r="AM157" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="AN157" s="3">
+        <v>44862.40471064814</v>
+      </c>
+      <c r="AO157" s="3">
+        <v>44862.52971064814</v>
+      </c>
+      <c r="AP157" t="inlineStr">
+        <is>
+          <t>e_visit_vo_max_protokol</t>
+        </is>
+      </c>
+      <c r="AQ157">
+        <v>10</v>
+      </c>
+      <c r="AR157">
+        <v>94198</v>
+      </c>
+      <c r="AS157">
+        <v>3400</v>
+      </c>
+      <c r="AT157" s="3">
+        <v>44862</v>
+      </c>
+      <c r="AU157" t="inlineStr">
+        <is>
+          <t>IER</t>
+        </is>
+      </c>
+      <c r="AV157">
+        <v>40</v>
+      </c>
+      <c r="AW157">
+        <v>25</v>
+      </c>
+      <c r="AX157" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY157">
+        <v>10</v>
+      </c>
+      <c r="AZ157">
+        <v>2711.05</v>
+      </c>
+      <c r="BA157">
+        <v>30.88</v>
+      </c>
+      <c r="BB157">
+        <v>169</v>
+      </c>
+      <c r="BC157">
+        <v>282</v>
+      </c>
+      <c r="BD157" s="3">
+        <v>0.5451388888905058</v>
+      </c>
+      <c r="BE157">
+        <v>8</v>
+      </c>
+      <c r="BF157">
+        <v>12</v>
+      </c>
+      <c r="BG157">
+        <v>1</v>
+      </c>
+      <c r="BH157" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BJ157">
+        <v>1</v>
+      </c>
+      <c r="BK157">
+        <v>35</v>
+      </c>
+      <c r="BL157" t="b">
+        <v>1</v>
+      </c>
+      <c r="BM157">
+        <v>8</v>
+      </c>
+      <c r="BN157">
+        <v>24</v>
+      </c>
+      <c r="BO157">
+        <v>3</v>
+      </c>
+      <c r="BQ157" t="b">
+        <v>0</v>
+      </c>
+      <c r="BR157">
+        <v>68.57142857142857</v>
+      </c>
+      <c r="BS157" t="inlineStr">
+        <is>
+          <t>exercise</t>
+        </is>
+      </c>
+      <c r="BT157">
+        <v>1.038563160777265</v>
+      </c>
+      <c r="BU157">
+        <v>1.046941567799202</v>
+      </c>
+      <c r="BV157">
+        <v>0.5964087048247997</v>
+      </c>
+      <c r="BW157">
+        <v>1.452392190623866</v>
+      </c>
+      <c r="BX157">
+        <v>1.515247317582279</v>
+      </c>
+      <c r="BY157">
+        <v>0.5539374261342982</v>
+      </c>
+      <c r="BZ157">
+        <v>1.020641378874029</v>
+      </c>
+      <c r="CA157">
+        <v>2.329226091295873</v>
+      </c>
+      <c r="CB157">
+        <v>-0.2263109987138613</v>
+      </c>
+      <c r="CC157">
+        <v>-0.1444395779530467</v>
+      </c>
+      <c r="CD157">
+        <v>0.4516201084688529</v>
+      </c>
+      <c r="CE157">
+        <v>1.552677464701717</v>
+      </c>
+      <c r="CF157">
+        <v>2.058763429921978</v>
+      </c>
+      <c r="CG157">
+        <v>0.05315969309829486</v>
+      </c>
+      <c r="CH157">
+        <v>9.143325439135378</v>
+      </c>
+      <c r="CI157">
+        <v>8.935666414033358</v>
+      </c>
+      <c r="CJ157">
+        <v>8.546905989510835</v>
+      </c>
+      <c r="CK157">
+        <v>9.234564579894505</v>
+      </c>
+      <c r="CL157">
+        <v>10.08563503632691</v>
+      </c>
+      <c r="CM157">
+        <v>7.947882879123163</v>
+      </c>
+      <c r="CN157">
+        <v>8.749672883746065</v>
+      </c>
+      <c r="CO157">
+        <v>13.4168969989801</v>
+      </c>
+      <c r="CP157">
+        <v>7.390541182135977</v>
+      </c>
+      <c r="CQ157">
+        <v>6.581036424451901</v>
+      </c>
+      <c r="CR157">
+        <v>8.06730490776887</v>
+      </c>
+      <c r="CS157">
+        <v>6.854381778293448</v>
+      </c>
+      <c r="CT157">
+        <v>11.77136661693308</v>
+      </c>
+      <c r="CU157">
+        <v>7.942783735960591</v>
+      </c>
+      <c r="CV157">
+        <v>1.091045277540577</v>
+      </c>
+      <c r="CW157">
+        <v>0.8795446105789081</v>
+      </c>
+      <c r="CX157" t="inlineStr">
+        <is>
+          <t>control</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>lup_023</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>baseline</t>
+        </is>
+      </c>
+      <c r="C158">
+        <v>23.44</v>
+      </c>
+      <c r="F158" t="b">
+        <v>1</v>
+      </c>
+      <c r="G158">
+        <v>19</v>
+      </c>
+      <c r="AD158">
+        <v>2</v>
+      </c>
+      <c r="AE158" t="inlineStr">
+        <is>
+          <t>Clara</t>
+        </is>
+      </c>
+      <c r="AF158">
+        <v>212552</v>
+      </c>
+      <c r="AG158" t="inlineStr">
+        <is>
+          <t>LUPEX</t>
+        </is>
+      </c>
+      <c r="AH158" t="inlineStr">
+        <is>
+          <t>Center for Aktiv Sundhed</t>
+        </is>
+      </c>
+      <c r="AI158" t="inlineStr">
+        <is>
+          <t>Arb Liste 36</t>
+        </is>
+      </c>
+      <c r="AJ158" t="inlineStr">
+        <is>
+          <t>LUP023</t>
+        </is>
+      </c>
+      <c r="AK158" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AL158" t="inlineStr">
+        <is>
+          <t>Visit 2 - Baseline</t>
+        </is>
+      </c>
+      <c r="AM158" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="AN158" s="3">
+        <v>44966.49603009259</v>
+      </c>
+      <c r="AO158" s="3">
+        <v>44966.62103009259</v>
+      </c>
+      <c r="AP158" t="inlineStr">
+        <is>
+          <t>e_visit_vo_max_protokol</t>
+        </is>
+      </c>
+      <c r="AQ158">
+        <v>10</v>
+      </c>
+      <c r="AR158">
+        <v>95097</v>
+      </c>
+      <c r="AS158">
+        <v>3400</v>
+      </c>
+      <c r="AT158" s="3">
+        <v>44966</v>
+      </c>
+      <c r="AU158" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="AV158">
+        <v>30</v>
+      </c>
+      <c r="AW158">
+        <v>20</v>
+      </c>
+      <c r="AX158" t="inlineStr">
+        <is>
+          <t>0	1</t>
+        </is>
+      </c>
+      <c r="AY158">
+        <v>13</v>
+      </c>
+      <c r="AZ158">
+        <v>1720.18</v>
+      </c>
+      <c r="BA158">
+        <v>23.44</v>
+      </c>
+      <c r="BB158">
+        <v>165</v>
+      </c>
+      <c r="BC158">
+        <v>163</v>
+      </c>
+      <c r="BD158" s="3">
+        <v>0.4861111111094942</v>
+      </c>
+      <c r="BE158">
+        <v>2</v>
+      </c>
+      <c r="BF158">
+        <v>10</v>
+      </c>
+      <c r="BG158">
+        <v>1</v>
+      </c>
+      <c r="BH158" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BJ158">
+        <v>1</v>
+      </c>
+      <c r="BK158">
+        <v>36</v>
+      </c>
+      <c r="BL158" t="b">
+        <v>1</v>
+      </c>
+      <c r="BM158">
+        <v>7</v>
+      </c>
+      <c r="BN158">
+        <v>28</v>
+      </c>
+      <c r="BO158">
+        <v>1</v>
+      </c>
+      <c r="BQ158" t="b">
+        <v>0</v>
+      </c>
+      <c r="BR158">
+        <v>77.77777777777779</v>
+      </c>
+      <c r="BS158" t="inlineStr">
+        <is>
+          <t>exercise</t>
+        </is>
+      </c>
+      <c r="BT158">
+        <v>1.777927790139097</v>
+      </c>
+      <c r="BU158">
+        <v>2.003137141563255</v>
+      </c>
+      <c r="BV158">
+        <v>2.099692526089525</v>
+      </c>
+      <c r="BW158">
+        <v>1.804846986475448</v>
+      </c>
+      <c r="BX158">
+        <v>2.121259609517482</v>
+      </c>
+      <c r="BY158">
+        <v>1.793548659863226</v>
+      </c>
+      <c r="BZ158">
+        <v>1.855997574564807</v>
+      </c>
+      <c r="CA158">
+        <v>-0.01030445294543366</v>
+      </c>
+      <c r="CB158">
+        <v>-0.0817648463135261</v>
+      </c>
+      <c r="CC158">
+        <v>0.06008320307786621</v>
+      </c>
+      <c r="CD158">
+        <v>1.94088891152148</v>
+      </c>
+      <c r="CE158">
+        <v>2.074631742035514</v>
+      </c>
+      <c r="CF158">
+        <v>0.4167872150642347</v>
+      </c>
+      <c r="CG158">
+        <v>0.06140722398744505</v>
+      </c>
+      <c r="CH158">
+        <v>9.633672718966986</v>
+      </c>
+      <c r="CI158">
+        <v>9.544792309856431</v>
+      </c>
+      <c r="CJ158">
+        <v>9.514393843865161</v>
+      </c>
+      <c r="CK158">
+        <v>9.406791384123229</v>
+      </c>
+      <c r="CL158">
+        <v>10.23805219093388</v>
+      </c>
+      <c r="CM158">
+        <v>8.934770393636404</v>
+      </c>
+      <c r="CN158">
+        <v>9.173959745281893</v>
+      </c>
+      <c r="CO158">
+        <v>12.0972582362174</v>
+      </c>
+      <c r="CP158">
+        <v>7.579330320027382</v>
+      </c>
+      <c r="CQ158">
+        <v>6.782370926182708</v>
+      </c>
+      <c r="CR158">
+        <v>9.033548424323545</v>
+      </c>
+      <c r="CS158">
+        <v>7.120071767964632</v>
+      </c>
+      <c r="CT158">
+        <v>10.9423725947813</v>
+      </c>
+      <c r="CU158">
+        <v>8.070217278989331</v>
+      </c>
+      <c r="CV158">
+        <v>1.997205129602647</v>
+      </c>
+      <c r="CW158">
+        <v>2.018228172937228</v>
+      </c>
+      <c r="CX158" t="inlineStr">
+        <is>
+          <t>control</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>lup_032</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>baseline</t>
+        </is>
+      </c>
+      <c r="F159" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD159">
+        <v>0</v>
+      </c>
+      <c r="AF159">
+        <v>212805</v>
+      </c>
+      <c r="AG159" t="inlineStr">
+        <is>
+          <t>LUPEX</t>
+        </is>
+      </c>
+      <c r="AH159" t="inlineStr">
+        <is>
+          <t>Center for Aktiv Sundhed</t>
+        </is>
+      </c>
+      <c r="AI159" t="inlineStr">
+        <is>
+          <t>Arb Liste 92</t>
+        </is>
+      </c>
+      <c r="AJ159" t="inlineStr">
+        <is>
+          <t>Lup032</t>
+        </is>
+      </c>
+      <c r="AK159" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AL159" t="inlineStr">
+        <is>
+          <t>Visit 2 - Baseline</t>
+        </is>
+      </c>
+      <c r="AM159" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="AN159" s="3">
+        <v>45124.41296296296</v>
+      </c>
+      <c r="AO159" s="3">
+        <v>45124.53796296296</v>
+      </c>
+      <c r="AP159" t="inlineStr">
+        <is>
+          <t>e_visit_vo_max_protokol</t>
+        </is>
+      </c>
+      <c r="AQ159">
+        <v>10</v>
+      </c>
+      <c r="AR159">
+        <v>96790</v>
+      </c>
+      <c r="AS159">
+        <v>3400</v>
+      </c>
+      <c r="AT159" s="3">
+        <v>45124</v>
+      </c>
+      <c r="BJ159">
+        <v>1</v>
+      </c>
+      <c r="BS159" t="inlineStr">
+        <is>
+          <t>control</t>
+        </is>
+      </c>
+      <c r="BT159">
+        <v>0.0951670085602736</v>
+      </c>
+      <c r="BU159">
+        <v>0.2543415322352159</v>
+      </c>
+      <c r="BV159">
+        <v>0.1587425332866745</v>
+      </c>
+      <c r="BW159">
+        <v>-0.09323572762314666</v>
+      </c>
+      <c r="BX159">
+        <v>0.6339558974988793</v>
+      </c>
+      <c r="BY159">
+        <v>0.02385238350880018</v>
+      </c>
+      <c r="BZ159">
+        <v>0.1088350604398836</v>
+      </c>
+      <c r="CA159">
+        <v>-0.06200403178865629</v>
+      </c>
+      <c r="CB159">
+        <v>0.1136293901628377</v>
+      </c>
+      <c r="CC159">
+        <v>-0.3798984369509011</v>
+      </c>
+      <c r="CD159">
+        <v>-0.0745338586615665</v>
+      </c>
+      <c r="CE159">
+        <v>0.6972132773104431</v>
+      </c>
+      <c r="CF159">
+        <v>0.6867861195744612</v>
+      </c>
+      <c r="CG159">
+        <v>0.1059170835522622</v>
+      </c>
+      <c r="CH159">
+        <v>8.781309502119964</v>
+      </c>
+      <c r="CI159">
+        <v>8.643026595049079</v>
+      </c>
+      <c r="CJ159">
+        <v>8.158963889522335</v>
+      </c>
+      <c r="CK159">
+        <v>8.68302925008857</v>
+      </c>
+      <c r="CL159">
+        <v>9.88591654938627</v>
+      </c>
+      <c r="CM159">
+        <v>7.584170684300306</v>
+      </c>
+      <c r="CN159">
+        <v>8.606628433982182</v>
+      </c>
+      <c r="CO159">
+        <v>12.12510073239854</v>
+      </c>
+      <c r="CP159">
+        <v>7.455795131079046</v>
+      </c>
+      <c r="CQ159">
+        <v>6.659925171462653</v>
+      </c>
+      <c r="CR159">
+        <v>7.829906901702126</v>
+      </c>
+      <c r="CS159">
+        <v>6.514047954920543</v>
+      </c>
+      <c r="CT159">
+        <v>11.09637944470472</v>
+      </c>
+      <c r="CU159">
+        <v>8.041180239429059</v>
+      </c>
+      <c r="CV159">
+        <v>0.2155565991729172</v>
+      </c>
+      <c r="CW159">
+        <v>0.1121709728023485</v>
+      </c>
+      <c r="CX159" t="inlineStr">
+        <is>
+          <t>control</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>lup_020</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>baseline</t>
+        </is>
+      </c>
+      <c r="C160">
+        <v>42.34</v>
+      </c>
+      <c r="F160" t="b">
+        <v>1</v>
+      </c>
+      <c r="G160">
+        <v>18</v>
+      </c>
+      <c r="AD160">
+        <v>2</v>
+      </c>
+      <c r="AE160" t="inlineStr">
+        <is>
+          <t>Iben</t>
+        </is>
+      </c>
+      <c r="AF160">
+        <v>212460</v>
+      </c>
+      <c r="AG160" t="inlineStr">
+        <is>
+          <t>LUPEX</t>
+        </is>
+      </c>
+      <c r="AH160" t="inlineStr">
+        <is>
+          <t>Center for Aktiv Sundhed</t>
+        </is>
+      </c>
+      <c r="AI160" t="inlineStr">
+        <is>
+          <t>Arb Liste 35</t>
+        </is>
+      </c>
+      <c r="AJ160" t="inlineStr">
+        <is>
+          <t>Lup020</t>
+        </is>
+      </c>
+      <c r="AK160" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AL160" t="inlineStr">
+        <is>
+          <t>Visit 2 - Baseline</t>
+        </is>
+      </c>
+      <c r="AM160" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="AN160" s="3">
+        <v>44949.37899305555</v>
+      </c>
+      <c r="AO160" s="3">
+        <v>44949.50399305555</v>
+      </c>
+      <c r="AP160" t="inlineStr">
+        <is>
+          <t>e_visit_vo_max_protokol</t>
+        </is>
+      </c>
+      <c r="AQ160">
+        <v>10</v>
+      </c>
+      <c r="AR160">
+        <v>94882</v>
+      </c>
+      <c r="AS160">
+        <v>3400</v>
+      </c>
+      <c r="AT160" s="3">
+        <v>44949</v>
+      </c>
+      <c r="AU160" t="inlineStr">
+        <is>
+          <t>IER</t>
+        </is>
+      </c>
+      <c r="AV160">
+        <v>40</v>
+      </c>
+      <c r="AW160">
+        <v>25</v>
+      </c>
+      <c r="AX160" t="inlineStr">
+        <is>
+          <t>0	1</t>
+        </is>
+      </c>
+      <c r="AY160">
+        <v>12</v>
+      </c>
+      <c r="AZ160">
+        <v>2455.64</v>
+      </c>
+      <c r="BA160">
+        <v>42.34</v>
+      </c>
+      <c r="BB160">
+        <v>181</v>
+      </c>
+      <c r="BC160">
+        <v>221</v>
+      </c>
+      <c r="BD160" s="3">
+        <v>0.5104166666678793</v>
+      </c>
+      <c r="BE160">
+        <v>5</v>
+      </c>
+      <c r="BF160">
+        <v>10</v>
+      </c>
+      <c r="BG160">
+        <v>1</v>
+      </c>
+      <c r="BH160" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BJ160">
+        <v>1</v>
+      </c>
+      <c r="BK160">
+        <v>30</v>
+      </c>
+      <c r="BL160" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN160">
+        <v>30</v>
+      </c>
+      <c r="BQ160" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR160">
+        <v>100</v>
+      </c>
+      <c r="BS160" t="inlineStr">
+        <is>
+          <t>exercise</t>
+        </is>
+      </c>
+      <c r="BT160">
+        <v>1.282308656290124</v>
+      </c>
+      <c r="BU160">
+        <v>1.312626717052744</v>
+      </c>
+      <c r="BV160">
+        <v>1.097362214767313</v>
+      </c>
+      <c r="BW160">
+        <v>1.181396172475494</v>
+      </c>
+      <c r="BX160">
+        <v>2.524991502111834</v>
+      </c>
+      <c r="BY160">
+        <v>0.8813393871468376</v>
+      </c>
+      <c r="BZ160">
+        <v>1.07089283269197</v>
+      </c>
+      <c r="CA160">
+        <v>2.143065420010093</v>
+      </c>
+      <c r="CB160">
+        <v>0.04847610295297208</v>
+      </c>
+      <c r="CC160">
+        <v>0.5042898175276804</v>
+      </c>
+      <c r="CD160">
+        <v>1.113666667673445</v>
+      </c>
+      <c r="CE160">
+        <v>1.382764565219679</v>
+      </c>
+      <c r="CF160">
+        <v>1.573284545042215</v>
+      </c>
+      <c r="CG160">
+        <v>0.6879539891591252</v>
+      </c>
+      <c r="CH160">
+        <v>9.231929853292993</v>
+      </c>
+      <c r="CI160">
+        <v>9.052805695861142</v>
+      </c>
+      <c r="CJ160">
+        <v>8.83808865650319</v>
+      </c>
+      <c r="CK160">
+        <v>9.116303653465662</v>
+      </c>
+      <c r="CL160">
+        <v>10.31031299040597</v>
+      </c>
+      <c r="CM160">
+        <v>8.158648205439638</v>
+      </c>
+      <c r="CN160">
+        <v>8.782061381378288</v>
+      </c>
+      <c r="CO160">
+        <v>12.79148421712318</v>
+      </c>
+      <c r="CP160">
+        <v>7.489628818326017</v>
+      </c>
+      <c r="CQ160">
+        <v>6.860958969080439</v>
+      </c>
+      <c r="CR160">
+        <v>8.472170048498828</v>
+      </c>
+      <c r="CS160">
+        <v>6.689102564372034</v>
+      </c>
+      <c r="CT160">
+        <v>11.19104162056693</v>
+      </c>
+      <c r="CU160">
+        <v>7.967259448578946</v>
+      </c>
+      <c r="CV160">
+        <v>1.382267417452839</v>
+      </c>
+      <c r="CW160">
+        <v>1.170797865076265</v>
+      </c>
+      <c r="CX160" t="inlineStr">
+        <is>
+          <t>control</t>
         </is>
       </c>
     </row>
